--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_12_8.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_12_8.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999974177537591</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6831517820913073</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999978469229052</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999999999993943</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999987341235845</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G2" t="n">
-        <v>1.532932915848141e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H2" t="n">
-        <v>0.188094789280936</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I2" t="n">
-        <v>1.383225668205079e-06</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J2" t="n">
-        <v>1.818772854509285e-13</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K2" t="n">
-        <v>6.916129250411821e-07</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003636069795704022</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001238116681031372</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000001377197995</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001290825871397734</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P2" t="n">
-        <v>164.7766554381579</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q2" t="n">
-        <v>248.8790873540638</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_1</t>
+          <t>model_12_8_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999995144854247</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6827503322630369</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999996528925382</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999949404741242</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F3" t="n">
-        <v>0.99999840591569</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G3" t="n">
-        <v>2.882224250220185e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H3" t="n">
-        <v>0.188333107240727</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I3" t="n">
-        <v>2.229961723009023e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J3" t="n">
-        <v>1.519127728372441e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K3" t="n">
-        <v>8.709296570181204e-07</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001379463176207861</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0005368635068823532</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000000258941107</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0005597188978310011</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P3" t="n">
-        <v>168.1190666915669</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q3" t="n">
-        <v>252.2214986074727</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_2</t>
+          <t>model_12_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999995086214659</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6827464638855183</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999996614111787</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999948120059599</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999983753817003</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G4" t="n">
-        <v>2.917035243035429e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1883354036767272</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I4" t="n">
-        <v>2.175234457139227e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J4" t="n">
-        <v>1.557700423783572e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K4" t="n">
-        <v>8.876119347487473e-07</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001356468197697808</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0005400958473304002</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000000262068552</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0005630888457037885</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P4" t="n">
-        <v>168.0950557564002</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q4" t="n">
-        <v>252.197487672306</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_3</t>
+          <t>model_12_8_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999994972776243</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6827399066150104</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999996758460208</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999945858710064</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999983217314814</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G5" t="n">
-        <v>2.984377186977839e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1883392963557601</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I5" t="n">
-        <v>2.082499069082845e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J5" t="n">
-        <v>1.625597670798384e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K5" t="n">
-        <v>9.169237888533344e-07</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001317411796762569</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0005462945347500595</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N5" t="n">
-        <v>1.0000002681186</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0005695514240799546</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P5" t="n">
-        <v>168.0494091469246</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q5" t="n">
-        <v>252.1518410628304</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_4</t>
+          <t>model_12_8_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999994917753158</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6827370317603616</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999996821021014</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999944849998421</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999982976924472</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G6" t="n">
-        <v>3.017041266992092e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1883410029936669</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I6" t="n">
-        <v>2.042307422434647e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J6" t="n">
-        <v>1.655884339229487e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K6" t="n">
-        <v>9.300575407364758e-07</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000130106537089496</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00054927600229685</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000000271053165</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0005726598188727007</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P6" t="n">
-        <v>168.0276380254409</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q6" t="n">
-        <v>252.1300699413467</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_5</t>
+          <t>model_12_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999994868479318</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6827344426535045</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999996874508149</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999943964532477</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999982765064634</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G7" t="n">
-        <v>3.046292346553073e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1883425399993408</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I7" t="n">
-        <v>2.007945077562425e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J7" t="n">
-        <v>1.682470543191753e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K7" t="n">
-        <v>9.416325254739979e-07</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001285943057932426</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0005519322736127208</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000000273681103</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0005754291731577278</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P7" t="n">
-        <v>168.0083408477805</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q7" t="n">
-        <v>252.1107727636863</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_6</t>
+          <t>model_12_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999994821858863</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6827322021637724</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999996917056486</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999994316389098</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999982570081392</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G8" t="n">
-        <v>3.073968262957657e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1883438700508299</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I8" t="n">
-        <v>1.980610268322215e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J8" t="n">
-        <v>1.706509884621027e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K8" t="n">
-        <v>9.522854557266245e-07</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001272803441084779</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00055443378891962</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000000276167527</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0005780371831500922</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P8" t="n">
-        <v>167.9902526604842</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q8" t="n">
-        <v>252.09268457639</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_7</t>
+          <t>model_12_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999994776312199</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6827301692436289</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999996960201378</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999942405574779</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999998238655821</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G9" t="n">
-        <v>3.101006730619973e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1883450768800446</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I9" t="n">
-        <v>1.952892207186074e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J9" t="n">
-        <v>1.729278404748847e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K9" t="n">
-        <v>9.623122641779164e-07</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001260224968968741</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M9" t="n">
-        <v>0.000556866836022758</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000000278596683</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0005805738101055126</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P9" t="n">
-        <v>167.9727376807496</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q9" t="n">
-        <v>252.0751695966554</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_8</t>
+          <t>model_12_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999994738202517</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6827283743248502</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999996998615037</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999994176759472</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999982234360646</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G10" t="n">
-        <v>3.123630284033994e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1883461424213682</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I10" t="n">
-        <v>1.928213685448238e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J10" t="n">
-        <v>1.748433820127823e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K10" t="n">
-        <v>9.706275943363233e-07</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000124934647687272</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0005588944698271753</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000000280629199</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0005826877644787646</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P10" t="n">
-        <v>167.9581995459292</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q10" t="n">
-        <v>252.060631461835</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_9</t>
+          <t>model_12_8_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999994700182739</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6827268297682108</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999997030559047</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999941158293045</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999982088860426</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G11" t="n">
-        <v>3.146200465896785e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1883470593369107</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I11" t="n">
-        <v>1.907691534247428e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J11" t="n">
-        <v>1.76672816413228e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K11" t="n">
-        <v>9.785770142902042e-07</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001239132780603067</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0005609100164818583</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000000282656921</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0005847891171272941</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P11" t="n">
-        <v>167.9438002549394</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q11" t="n">
-        <v>252.0462321708452</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_10</t>
+          <t>model_12_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999994667476364</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6827253781197429</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999997060333413</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999940633892117</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999981959130183</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G12" t="n">
-        <v>3.165616383390453e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1883479210981492</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I12" t="n">
-        <v>1.888563251634824e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J12" t="n">
-        <v>1.782473354700883e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K12" t="n">
-        <v>9.856648399321824e-07</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001230431838357932</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0005626381060140215</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000000284401261</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00058659077500848</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P12" t="n">
-        <v>167.9314957288742</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.03392764478</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_11</t>
+          <t>model_12_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999999463369925</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6827238584240289</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999997081621929</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999940125293839</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999981831894663</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G13" t="n">
-        <v>3.18566793770257e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1883488232551724</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I13" t="n">
-        <v>1.874886630100658e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J13" t="n">
-        <v>1.79774406909849e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K13" t="n">
-        <v>9.92616366054278e-07</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000122252224788614</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0005644172160470099</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000000286202707</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0005884456254388381</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P13" t="n">
-        <v>167.9188673407132</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q13" t="n">
-        <v>252.0212992566191</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999994604119291</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6827226666314485</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999997104351624</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999939674363674</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999981721352424</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G14" t="n">
-        <v>3.203227878597817e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1883495307547309</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I14" t="n">
-        <v>1.860284134491864e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J14" t="n">
-        <v>1.811283292605376e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K14" t="n">
-        <v>9.986558530272814e-07</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001215741904625495</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0005659706598930564</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000000287780304</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O14" t="n">
-        <v>0.000590065202605483</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P14" t="n">
-        <v>167.9078732749979</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q14" t="n">
-        <v>252.0103051909038</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_13</t>
+          <t>model_12_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999999457866515</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6827216406143111</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999997125362554</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999939285059126</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F15" t="n">
-        <v>0.999998162673305</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G15" t="n">
-        <v>3.218338556581275e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1883501398428254</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I15" t="n">
-        <v>1.846785844694768e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J15" t="n">
-        <v>1.822972200780019e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K15" t="n">
-        <v>1.003825392624748e-06</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001208967521463049</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0005673040240101665</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000000289137859</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0005914553307935027</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P15" t="n">
-        <v>167.8984608015611</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q15" t="n">
-        <v>252.0008927174669</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_14</t>
+          <t>model_12_8_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999994553573631</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6827206007022778</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999997142174508</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999993891498977</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999981537593388</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G16" t="n">
-        <v>3.233233965627598e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1883507571795301</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I16" t="n">
-        <v>1.835985150993877e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J16" t="n">
-        <v>1.834083570400384e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K16" t="n">
-        <v>1.008695547547304e-06</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001203143847248682</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0005686153326834933</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000000290476073</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0005928224645918363</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P16" t="n">
-        <v>167.8892255737389</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q16" t="n">
-        <v>251.9916574896448</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_15</t>
+          <t>model_12_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999994532473558</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6827198105979042</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999997159860967</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999938597561264</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999981457561178</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2457598806162e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H17" t="n">
-        <v>0.188351226219617</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I17" t="n">
-        <v>1.824622639157441e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J17" t="n">
-        <v>1.843614393164391e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K17" t="n">
-        <v>1.0130681158046e-06</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001197589913080614</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0005697157081050337</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00000029160141</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0005939696852731627</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P17" t="n">
-        <v>167.8814923170686</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q17" t="n">
-        <v>251.9839242329744</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_16</t>
+          <t>model_12_8_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999994512578333</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6827189195125998</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999997173929189</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999938304878451</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999981385954695</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G18" t="n">
-        <v>3.25757054555637e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1883517552063466</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I18" t="n">
-        <v>1.815584632433341e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J18" t="n">
-        <v>1.852402224063171e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K18" t="n">
-        <v>1.016980343653253e-06</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001192851066734286</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0005707513070993679</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000000292662489</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0005950493718606711</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P18" t="n">
-        <v>167.8742279296542</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q18" t="n">
-        <v>251.9766598455601</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_17</t>
+          <t>model_12_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999994493659154</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6827182550825854</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999997187194324</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999938030314808</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F19" t="n">
-        <v>0.99999813183096</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G19" t="n">
-        <v>3.268801787130445e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1883521496407051</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I19" t="n">
-        <v>1.807062561743019e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J19" t="n">
-        <v>1.860646025031313e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K19" t="n">
-        <v>1.020676140602807e-06</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001188982386524788</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0005717343602697362</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000000293671512</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0005960742756397026</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P19" t="n">
-        <v>167.8673443183071</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q19" t="n">
-        <v>251.9697762342129</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_18</t>
+          <t>model_12_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.999999447966938</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6827176576716993</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D20" t="n">
-        <v>0.99999972024578</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999937814235144</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999981267909543</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G20" t="n">
-        <v>3.277106722285854e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1883525042896139</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I20" t="n">
-        <v>1.797256674449847e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J20" t="n">
-        <v>1.867133838650311e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K20" t="n">
-        <v>1.023429753047648e-06</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001184850497914138</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0005724601927021523</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000000294417633</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O20" t="n">
-        <v>0.000596831008261447</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P20" t="n">
-        <v>167.8622694294054</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q20" t="n">
-        <v>251.9647013453113</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_19</t>
+          <t>model_12_8_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999994462747744</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6827171008747495</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999997211019986</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999937578878619</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999981208823863</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G21" t="n">
-        <v>3.287152135588767e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1883528348283356</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I21" t="n">
-        <v>1.791755972021116e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J21" t="n">
-        <v>1.874200441950581e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K21" t="n">
-        <v>1.026657905462155e-06</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001181863343430654</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0005733369110382452</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N21" t="n">
-        <v>1.00000029532012</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0005977450503121645</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P21" t="n">
-        <v>167.8561481466455</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q21" t="n">
-        <v>251.9585800625513</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_20</t>
+          <t>model_12_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999994449211539</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6827166316009676</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999997219967358</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999937385505128</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999981160398308</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G22" t="n">
-        <v>3.295187811976273e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1883531134095242</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I22" t="n">
-        <v>1.786007810804692e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J22" t="n">
-        <v>1.88000650047441e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K22" t="n">
-        <v>1.02930364077744e-06</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001178610051808426</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0005740372646419632</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000000296042051</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0005984752194187246</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P22" t="n">
-        <v>167.8512649710918</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q22" t="n">
-        <v>251.9536968869976</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_21</t>
+          <t>model_12_8_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.999999442409325</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6827156987260736</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999997233160371</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999937036515311</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999981072260101</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G23" t="n">
-        <v>3.310099113366143e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1883536672043593</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I23" t="n">
-        <v>1.777532074263987e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J23" t="n">
-        <v>1.890484954794926e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K23" t="n">
-        <v>1.034119081110662e-06</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001173731164466266</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0005753346081513038</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000000297381693</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0005998277935271291</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P23" t="n">
-        <v>167.842235036805</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.9446669527108</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_22</t>
+          <t>model_12_8_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999994392335619</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6827143705938126</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999997259919354</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999936575986519</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999998095929275</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G24" t="n">
-        <v>3.328951814518747e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1883544556410418</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I24" t="n">
-        <v>1.760340998354381e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J24" t="n">
-        <v>1.904312378051207e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K24" t="n">
-        <v>1.040291064298725e-06</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001165749154002581</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0005769706937547822</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000000299075434</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0006015335306819117</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P24" t="n">
-        <v>167.8308763338627</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q24" t="n">
-        <v>251.9333082497686</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_23</t>
+          <t>model_12_8_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999994378061784</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6827139316059688</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999997266488287</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999936382563417</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999980912162963</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G25" t="n">
-        <v>3.337425380035834e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1883547162431891</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I25" t="n">
-        <v>1.75612084377361e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J25" t="n">
-        <v>1.91011992611803e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K25" t="n">
-        <v>1.042866005247695e-06</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001162883535386665</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0005777045421351501</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000000299836705</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0006022986205071073</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P25" t="n">
-        <v>167.8257919710472</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q25" t="n">
-        <v>251.928223886953</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.999999436940035</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6827134788187306</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999997272531946</v>
+        <v>0.7582052481654122</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999936260786196</v>
+        <v>0.8998571001689586</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999980882254504</v>
+        <v>0.8278129647012555</v>
       </c>
       <c r="G26" t="n">
-        <v>3.342567181237645e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1883549850372532</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I26" t="n">
-        <v>1.752238147878158e-07</v>
+        <v>0.1887239314917386</v>
       </c>
       <c r="J26" t="n">
-        <v>1.913776299383125e-06</v>
+        <v>0.06423096092399903</v>
       </c>
       <c r="K26" t="n">
-        <v>1.044500057085471e-06</v>
+        <v>0.1264774462078688</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001160356645234345</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0005781493908357635</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000000300298648</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0006027624073378698</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P26" t="n">
-        <v>167.8227130441351</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.925144960041</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
   </sheetData>
